--- a/fastapi/xl_uploader/tests.xlsx
+++ b/fastapi/xl_uploader/tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\ksrtc app\fastapi\xl_uploader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDE32E3-0B42-42D7-977C-2FF50078C4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0257E7-DA40-4003-ADD9-B145912827DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -371,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AO46"/>
+  <dimension ref="D2:AO45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -530,133 +530,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>23</v>
-      </c>
-      <c r="B45">
-        <v>23</v>
-      </c>
-      <c r="C45">
-        <v>23</v>
-      </c>
-      <c r="D45">
-        <v>23</v>
-      </c>
-      <c r="E45">
-        <v>23</v>
-      </c>
-      <c r="F45">
-        <v>23</v>
-      </c>
-      <c r="G45">
-        <v>23</v>
-      </c>
-      <c r="H45">
-        <v>23</v>
-      </c>
-      <c r="I45">
-        <v>23</v>
-      </c>
-      <c r="J45">
-        <v>23</v>
-      </c>
-      <c r="K45">
-        <v>23</v>
-      </c>
-      <c r="L45">
-        <v>23</v>
-      </c>
-      <c r="M45">
-        <v>23</v>
-      </c>
-      <c r="N45">
-        <v>23</v>
-      </c>
-      <c r="O45">
-        <v>23</v>
-      </c>
-      <c r="P45">
-        <v>23</v>
-      </c>
-      <c r="Q45">
-        <v>23</v>
-      </c>
-      <c r="R45">
-        <v>23</v>
-      </c>
-      <c r="S45">
-        <v>23</v>
-      </c>
-      <c r="T45">
-        <v>22</v>
-      </c>
-      <c r="U45">
-        <v>21</v>
-      </c>
-      <c r="V45">
-        <v>20</v>
-      </c>
-      <c r="W45">
-        <v>19</v>
-      </c>
-      <c r="X45">
-        <v>18</v>
-      </c>
-      <c r="Y45">
-        <v>17</v>
-      </c>
-      <c r="Z45">
-        <v>16</v>
-      </c>
-      <c r="AA45">
-        <v>15</v>
-      </c>
-      <c r="AB45">
-        <v>14</v>
-      </c>
-      <c r="AC45">
-        <v>13</v>
-      </c>
-      <c r="AD45">
-        <v>12</v>
-      </c>
-      <c r="AE45">
-        <v>11</v>
-      </c>
-      <c r="AF45">
-        <v>10</v>
-      </c>
-      <c r="AG45">
-        <v>9</v>
-      </c>
-      <c r="AH45">
-        <v>8</v>
-      </c>
-      <c r="AI45">
-        <v>7</v>
-      </c>
-      <c r="AJ45">
-        <v>6</v>
-      </c>
-      <c r="AK45">
-        <v>5</v>
-      </c>
-      <c r="AL45">
-        <v>4</v>
-      </c>
-      <c r="AM45">
-        <v>3</v>
-      </c>
-      <c r="AN45">
-        <v>2</v>
-      </c>
-      <c r="AO45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="AO46" t="s">
+    <row r="45" spans="41:41" x14ac:dyDescent="0.35">
+      <c r="AO45" t="s">
         <v>6</v>
       </c>
     </row>
